--- a/Code/Results/Cases/Case_8_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.52304496757139</v>
+        <v>24.53789605400538</v>
       </c>
       <c r="C2">
-        <v>23.51881784822231</v>
+        <v>24.9299272697643</v>
       </c>
       <c r="D2">
-        <v>5.155382576156772</v>
+        <v>4.210110936268037</v>
       </c>
       <c r="E2">
-        <v>29.15214944146675</v>
+        <v>29.16850220364666</v>
       </c>
       <c r="F2">
-        <v>40.73876196848998</v>
+        <v>34.60239812135946</v>
       </c>
       <c r="G2">
-        <v>2.073249546394337</v>
+        <v>1.796878286076133</v>
       </c>
       <c r="H2">
-        <v>3.120035734626433</v>
+        <v>3.130465718230501</v>
       </c>
       <c r="I2">
-        <v>3.198796756494608</v>
+        <v>3.228980373671118</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.38554280626158</v>
+        <v>20.34043639028415</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.12330610508291</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.39718122906084</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.85867128789674</v>
+        <v>22.91677921422874</v>
       </c>
       <c r="C3">
-        <v>21.88168312355463</v>
+        <v>23.20645934939034</v>
       </c>
       <c r="D3">
-        <v>5.061410101606809</v>
+        <v>4.170825397709578</v>
       </c>
       <c r="E3">
-        <v>27.12297317895633</v>
+        <v>27.22283733822818</v>
       </c>
       <c r="F3">
-        <v>38.50257616912048</v>
+        <v>32.90845087047612</v>
       </c>
       <c r="G3">
-        <v>2.081851912144528</v>
+        <v>1.253346293712249</v>
       </c>
       <c r="H3">
-        <v>2.774029732896811</v>
+        <v>2.838279926820859</v>
       </c>
       <c r="I3">
-        <v>2.887661628288733</v>
+        <v>3.005437585171367</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.36952555283725</v>
+        <v>19.79998712609619</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.92531678745744</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.73221934556494</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.77788639049081</v>
+        <v>21.86210952607518</v>
       </c>
       <c r="C4">
-        <v>20.82654985538661</v>
+        <v>22.09118826679807</v>
       </c>
       <c r="D4">
-        <v>5.000504512010274</v>
+        <v>4.143613251161002</v>
       </c>
       <c r="E4">
-        <v>25.8116883839127</v>
+        <v>25.96265131716799</v>
       </c>
       <c r="F4">
-        <v>37.07401710589578</v>
+        <v>31.82233505611618</v>
       </c>
       <c r="G4">
-        <v>2.087254890573123</v>
+        <v>1.869556368811969</v>
       </c>
       <c r="H4">
-        <v>2.555794942017938</v>
+        <v>2.653355504261752</v>
       </c>
       <c r="I4">
-        <v>2.692987115906798</v>
+        <v>2.865348264042499</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>23.72595622531697</v>
+        <v>19.45602995688384</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.79134039315949</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.3255935653467</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.32217820123457</v>
+        <v>21.41706213932032</v>
       </c>
       <c r="C5">
-        <v>20.39291549917199</v>
+        <v>21.62975106445811</v>
       </c>
       <c r="D5">
-        <v>4.968920490303553</v>
+        <v>4.128453258389895</v>
       </c>
       <c r="E5">
-        <v>25.26013400299459</v>
+        <v>25.43214366693933</v>
       </c>
       <c r="F5">
-        <v>36.44007616717161</v>
+        <v>31.33764213972442</v>
       </c>
       <c r="G5">
-        <v>2.089504669203872</v>
+        <v>2.126438745977563</v>
       </c>
       <c r="H5">
-        <v>2.464975101289744</v>
+        <v>2.576321901028266</v>
       </c>
       <c r="I5">
-        <v>2.612942056984778</v>
+        <v>2.808101634476135</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>23.42852844434657</v>
+        <v>19.28968044414992</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.7158416333085</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.14333124665966</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.24517633146118</v>
+        <v>21.34191390560186</v>
       </c>
       <c r="C6">
-        <v>20.33120364590782</v>
+        <v>21.56141055093044</v>
       </c>
       <c r="D6">
-        <v>4.956360753604418</v>
+        <v>4.121887018359542</v>
       </c>
       <c r="E6">
-        <v>25.16685500064618</v>
+        <v>25.34257263478212</v>
       </c>
       <c r="F6">
-        <v>36.28729046754487</v>
+        <v>31.21885432612176</v>
       </c>
       <c r="G6">
-        <v>2.089899543013682</v>
+        <v>2.171355986987609</v>
       </c>
       <c r="H6">
-        <v>2.449349820376181</v>
+        <v>2.563140330763849</v>
       </c>
       <c r="I6">
-        <v>2.600111016975772</v>
+        <v>2.799496856585269</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>23.34169071189188</v>
+        <v>19.23355177070886</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.68144851213696</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.09174206836691</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.77063475869852</v>
+        <v>21.85361438799715</v>
       </c>
       <c r="C7">
-        <v>20.85017542269745</v>
+        <v>22.04923566607115</v>
       </c>
       <c r="D7">
-        <v>4.98030557828096</v>
+        <v>4.113737617902492</v>
       </c>
       <c r="E7">
-        <v>25.80245270026264</v>
+        <v>25.95092608678273</v>
       </c>
       <c r="F7">
-        <v>36.9403067378258</v>
+        <v>31.52896155547157</v>
       </c>
       <c r="G7">
-        <v>2.08733741679439</v>
+        <v>1.970841091390021</v>
       </c>
       <c r="H7">
-        <v>2.553351954800331</v>
+        <v>2.649369243111891</v>
       </c>
       <c r="I7">
-        <v>2.692821366263413</v>
+        <v>2.863446431051033</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>23.6216845689038</v>
+        <v>19.26247616078068</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.64483498746378</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.17760156577169</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95974780813056</v>
+        <v>23.98473064756974</v>
       </c>
       <c r="C8">
-        <v>23.00023079486706</v>
+        <v>24.1920402261525</v>
       </c>
       <c r="D8">
-        <v>5.09789539427407</v>
+        <v>4.124906424753854</v>
       </c>
       <c r="E8">
-        <v>28.46346601424208</v>
+        <v>28.49878439238941</v>
       </c>
       <c r="F8">
-        <v>39.82407467375763</v>
+        <v>33.32313530475909</v>
       </c>
       <c r="G8">
-        <v>2.076259044730675</v>
+        <v>1.8736328822773</v>
       </c>
       <c r="H8">
-        <v>3.000309591809879</v>
+        <v>3.022937486014212</v>
       </c>
       <c r="I8">
-        <v>3.092419715190664</v>
+        <v>3.143966944223545</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.91246006776422</v>
+        <v>19.69387672842479</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.71350351112491</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.80855228380929</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.79390592147278</v>
+        <v>27.70406123174253</v>
       </c>
       <c r="C9">
-        <v>26.78160591043285</v>
+        <v>28.12746341370488</v>
       </c>
       <c r="D9">
-        <v>5.337900842960816</v>
+        <v>4.206110121253751</v>
       </c>
       <c r="E9">
-        <v>33.17597877034758</v>
+        <v>32.99418272487628</v>
       </c>
       <c r="F9">
-        <v>45.23249132021893</v>
+        <v>37.3177192784569</v>
       </c>
       <c r="G9">
-        <v>2.055319403972167</v>
+        <v>3.945831220069636</v>
       </c>
       <c r="H9">
-        <v>3.836062602070617</v>
+        <v>3.722510256590879</v>
       </c>
       <c r="I9">
-        <v>3.850587417002298</v>
+        <v>3.682632708501561</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.44960481624966</v>
+        <v>20.99284819875094</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.16491538415127</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.46684013107742</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.32751403073945</v>
+        <v>30.14091510842358</v>
       </c>
       <c r="C10">
-        <v>29.23544962907785</v>
+        <v>30.35951608435987</v>
       </c>
       <c r="D10">
-        <v>5.39734713128621</v>
+        <v>4.127870212508281</v>
       </c>
       <c r="E10">
-        <v>35.45189944254542</v>
+        <v>35.08924235406526</v>
       </c>
       <c r="F10">
-        <v>48.34220639330336</v>
+        <v>38.71206789237618</v>
       </c>
       <c r="G10">
-        <v>2.040905894053901</v>
+        <v>6.150375156986219</v>
       </c>
       <c r="H10">
-        <v>4.382522981700685</v>
+        <v>4.161322614568655</v>
       </c>
       <c r="I10">
-        <v>4.376992578472</v>
+        <v>4.038917914652034</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>28.78083766193765</v>
+        <v>21.0171370740952</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.81861871206203</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.97456381391764</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.33259315745997</v>
+        <v>31.12268925055785</v>
       </c>
       <c r="C11">
-        <v>29.40653807981539</v>
+        <v>29.77415417484363</v>
       </c>
       <c r="D11">
-        <v>4.66724098416482</v>
+        <v>3.906134606168393</v>
       </c>
       <c r="E11">
-        <v>28.89077309823343</v>
+        <v>28.45907493654815</v>
       </c>
       <c r="F11">
-        <v>45.00590078571093</v>
+        <v>34.27226939545405</v>
       </c>
       <c r="G11">
-        <v>2.03886447378566</v>
+        <v>9.089688599334842</v>
       </c>
       <c r="H11">
-        <v>4.723603206194272</v>
+        <v>4.501645621702418</v>
       </c>
       <c r="I11">
-        <v>4.460377209096016</v>
+        <v>4.077944346464323</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.94474196095418</v>
+        <v>17.72966267046615</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.35894932785548</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.56123868665396</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.67466789622057</v>
+        <v>31.46868494428463</v>
       </c>
       <c r="C12">
-        <v>29.02325705196155</v>
+        <v>28.96545230721711</v>
       </c>
       <c r="D12">
-        <v>4.191076759933705</v>
+        <v>4.032432637532252</v>
       </c>
       <c r="E12">
-        <v>22.94718470408721</v>
+        <v>22.48286497412348</v>
       </c>
       <c r="F12">
-        <v>41.68129826136528</v>
+        <v>30.86835521883043</v>
       </c>
       <c r="G12">
-        <v>2.039620729268968</v>
+        <v>10.66363012153123</v>
       </c>
       <c r="H12">
-        <v>5.476436512785895</v>
+        <v>5.296187021335964</v>
       </c>
       <c r="I12">
-        <v>4.43623975743792</v>
+        <v>4.056452813844554</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.40895041267935</v>
+        <v>15.46295679330356</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.77441443503492</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.77599658718725</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.53911998009206</v>
+        <v>31.35893513407655</v>
       </c>
       <c r="C13">
-        <v>28.21491387564642</v>
+        <v>28.05348976931634</v>
       </c>
       <c r="D13">
-        <v>3.895090114729734</v>
+        <v>4.241668568629563</v>
       </c>
       <c r="E13">
-        <v>17.00973843999259</v>
+        <v>16.53515102081795</v>
       </c>
       <c r="F13">
-        <v>37.91357639514509</v>
+        <v>28.20420078658552</v>
       </c>
       <c r="G13">
-        <v>2.042627186475569</v>
+        <v>10.15937431392319</v>
       </c>
       <c r="H13">
-        <v>6.438665730192608</v>
+        <v>6.310080966994096</v>
       </c>
       <c r="I13">
-        <v>4.328453582684068</v>
+        <v>3.991554914920039</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.77659058709737</v>
+        <v>13.91595723426621</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.77213150467661</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.441993821390199</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.22851922057502</v>
+        <v>31.0745137452189</v>
       </c>
       <c r="C14">
-        <v>27.45603788066785</v>
+        <v>27.35720538475232</v>
       </c>
       <c r="D14">
-        <v>3.811580843845783</v>
+        <v>4.382695716674743</v>
       </c>
       <c r="E14">
-        <v>12.92348889260128</v>
+        <v>12.441949246415</v>
       </c>
       <c r="F14">
-        <v>35.00234927973083</v>
+        <v>26.59992391670269</v>
       </c>
       <c r="G14">
-        <v>2.045688090974487</v>
+        <v>8.868414718494165</v>
       </c>
       <c r="H14">
-        <v>7.202207612600304</v>
+        <v>7.106635790844681</v>
       </c>
       <c r="I14">
-        <v>4.217960171597738</v>
+        <v>3.927274161993636</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.86242136684318</v>
+        <v>13.11180186007767</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.28644226890309</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.680943306826874</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.04849148857853</v>
+        <v>30.90536382264845</v>
       </c>
       <c r="C15">
-        <v>27.18487751444429</v>
+        <v>27.15963839170535</v>
       </c>
       <c r="D15">
-        <v>3.811107879638451</v>
+        <v>4.39741457829338</v>
       </c>
       <c r="E15">
-        <v>11.92832235860697</v>
+        <v>11.45607140303843</v>
       </c>
       <c r="F15">
-        <v>34.15057193506551</v>
+        <v>26.30144022746542</v>
       </c>
       <c r="G15">
-        <v>2.046984960794195</v>
+        <v>8.157028306316965</v>
       </c>
       <c r="H15">
-        <v>7.375787154820286</v>
+        <v>7.289835303063024</v>
       </c>
       <c r="I15">
-        <v>4.171808204284004</v>
+        <v>3.901324897935523</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.34333202067844</v>
+        <v>13.00820489493706</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.23671704392645</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.553927430724531</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.03939683421901</v>
+        <v>29.93970783663821</v>
       </c>
       <c r="C16">
-        <v>26.30111086533026</v>
+        <v>26.78132175679411</v>
       </c>
       <c r="D16">
-        <v>3.844311922401813</v>
+        <v>4.190661371497638</v>
       </c>
       <c r="E16">
-        <v>11.64478031856563</v>
+        <v>11.31075965806592</v>
       </c>
       <c r="F16">
-        <v>33.28304893041526</v>
+        <v>27.32102027997021</v>
       </c>
       <c r="G16">
-        <v>2.052437629691095</v>
+        <v>5.095751163329547</v>
       </c>
       <c r="H16">
-        <v>7.06785905259675</v>
+        <v>7.007324477328863</v>
       </c>
       <c r="I16">
-        <v>3.973785791771252</v>
+        <v>3.78475244617876</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.15602392916501</v>
+        <v>13.95144479006921</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.94047961171008</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.179221358708368</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.41937028739188</v>
+        <v>29.3388287459146</v>
       </c>
       <c r="C17">
-        <v>26.03285803420749</v>
+        <v>26.80326345101835</v>
       </c>
       <c r="D17">
-        <v>3.89054765324452</v>
+        <v>4.031319768168692</v>
       </c>
       <c r="E17">
-        <v>13.6582753755424</v>
+        <v>13.41468564112034</v>
       </c>
       <c r="F17">
-        <v>34.22854016031353</v>
+        <v>28.78146005659156</v>
       </c>
       <c r="G17">
-        <v>2.055056107162978</v>
+        <v>4.096431624696999</v>
       </c>
       <c r="H17">
-        <v>6.368094405220466</v>
+        <v>6.314219495341135</v>
       </c>
       <c r="I17">
-        <v>3.878669375836814</v>
+        <v>3.726646296447965</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.0420114399362</v>
+        <v>15.02131419607179</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.71987780111641</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.969810644477761</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.08148357456544</v>
+        <v>29.00256379982542</v>
       </c>
       <c r="C18">
-        <v>26.2624058390165</v>
+        <v>27.26908241676321</v>
       </c>
       <c r="D18">
-        <v>4.063162916803781</v>
+        <v>3.920037764075973</v>
       </c>
       <c r="E18">
-        <v>18.19952012790553</v>
+        <v>17.99765665742674</v>
       </c>
       <c r="F18">
-        <v>36.93993164286714</v>
+        <v>31.17705929976255</v>
       </c>
       <c r="G18">
-        <v>2.055267274991582</v>
+        <v>3.89607604894333</v>
       </c>
       <c r="H18">
-        <v>5.342635025245319</v>
+        <v>5.278607745701263</v>
       </c>
       <c r="I18">
-        <v>3.867293075604027</v>
+        <v>3.718516569112636</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.04987900739966</v>
+        <v>16.59386424810128</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.84160129237547</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.20525570642776</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.00530600173907</v>
+        <v>28.91270599456058</v>
       </c>
       <c r="C19">
-        <v>26.92558209555288</v>
+        <v>28.13698263434788</v>
       </c>
       <c r="D19">
-        <v>4.446917347578273</v>
+        <v>3.936860316802852</v>
       </c>
       <c r="E19">
-        <v>24.51148343581751</v>
+        <v>24.3064578096824</v>
       </c>
       <c r="F19">
-        <v>40.65250904122342</v>
+        <v>34.10532120242959</v>
       </c>
       <c r="G19">
-        <v>2.053239990354537</v>
+        <v>4.074505371423682</v>
       </c>
       <c r="H19">
-        <v>4.402031587738977</v>
+        <v>4.306601270605417</v>
       </c>
       <c r="I19">
-        <v>3.939458057751409</v>
+        <v>3.767400818791638</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.68503417023479</v>
+        <v>18.44993324716019</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.16054842345035</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.68788503066443</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.67600673690465</v>
+        <v>29.52249964707774</v>
       </c>
       <c r="C20">
-        <v>28.66888896583582</v>
+        <v>30.00799633741964</v>
       </c>
       <c r="D20">
-        <v>5.321376984860508</v>
+        <v>4.171389645993454</v>
       </c>
       <c r="E20">
-        <v>34.81901794707415</v>
+        <v>34.51846915879745</v>
       </c>
       <c r="F20">
-        <v>47.20309447672877</v>
+        <v>38.62153879418021</v>
       </c>
       <c r="G20">
-        <v>2.044841467076109</v>
+        <v>5.121096354195544</v>
       </c>
       <c r="H20">
-        <v>4.233904931002789</v>
+        <v>4.049503124044914</v>
       </c>
       <c r="I20">
-        <v>4.239101987954693</v>
+        <v>3.962000594676354</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28.15272381008587</v>
+        <v>21.15044296756086</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.00869383180769</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.95117995234886</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.5543320595036</v>
+        <v>31.28844291819988</v>
       </c>
       <c r="C21">
-        <v>30.63606406893263</v>
+        <v>30.98072150887026</v>
       </c>
       <c r="D21">
-        <v>5.518798789565936</v>
+        <v>3.959404105845511</v>
       </c>
       <c r="E21">
-        <v>37.86431016747032</v>
+        <v>37.35593876289207</v>
       </c>
       <c r="F21">
-        <v>50.41135328367326</v>
+        <v>37.5884738703614</v>
       </c>
       <c r="G21">
-        <v>2.032993221245379</v>
+        <v>10.77177845244639</v>
       </c>
       <c r="H21">
-        <v>4.719958981171002</v>
+        <v>4.41056686602231</v>
       </c>
       <c r="I21">
-        <v>4.669643092993834</v>
+        <v>4.198655834362771</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>29.80690623547262</v>
+        <v>19.79975699775837</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.78539688263227</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.25706045362675</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.73167740279663</v>
+        <v>32.39102175475823</v>
       </c>
       <c r="C22">
-        <v>31.80260084073481</v>
+        <v>31.45453624593787</v>
       </c>
       <c r="D22">
-        <v>5.621722872090028</v>
+        <v>3.876899805114481</v>
       </c>
       <c r="E22">
-        <v>39.34781857369902</v>
+        <v>38.70256725474498</v>
       </c>
       <c r="F22">
-        <v>52.30313732977091</v>
+        <v>36.65006803027307</v>
       </c>
       <c r="G22">
-        <v>2.025488664248421</v>
+        <v>15.56846798436696</v>
       </c>
       <c r="H22">
-        <v>5.013140157595633</v>
+        <v>4.623739487044717</v>
       </c>
       <c r="I22">
-        <v>4.941249833428314</v>
+        <v>4.344547869834535</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>30.77413290464771</v>
+        <v>18.76149772205707</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.89783558770278</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.67611058121843</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.10898659759358</v>
+        <v>31.81113201985274</v>
       </c>
       <c r="C23">
-        <v>31.15914437675703</v>
+        <v>31.29925102622053</v>
       </c>
       <c r="D23">
-        <v>5.588506479272507</v>
+        <v>3.934423808934288</v>
       </c>
       <c r="E23">
-        <v>38.56273189791706</v>
+        <v>37.99595909794271</v>
       </c>
       <c r="F23">
-        <v>51.41000603627799</v>
+        <v>37.61418306020681</v>
       </c>
       <c r="G23">
-        <v>2.029435706467881</v>
+        <v>12.27590037571581</v>
       </c>
       <c r="H23">
-        <v>4.85819628448988</v>
+        <v>4.51480011563412</v>
       </c>
       <c r="I23">
-        <v>4.796322019186601</v>
+        <v>4.270340267749522</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>30.35606914765873</v>
+        <v>19.63474131515783</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.59042173199555</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.24137378685318</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.65514944757611</v>
+        <v>29.49920119196116</v>
       </c>
       <c r="C24">
-        <v>28.68429925762014</v>
+        <v>30.0562588463806</v>
       </c>
       <c r="D24">
-        <v>5.424690038156034</v>
+        <v>4.217401283954757</v>
       </c>
       <c r="E24">
-        <v>35.48771180107875</v>
+        <v>35.18378757214288</v>
       </c>
       <c r="F24">
-        <v>47.75842221904177</v>
+        <v>39.0826487178458</v>
       </c>
       <c r="G24">
-        <v>2.044520468436082</v>
+        <v>5.133401176931235</v>
       </c>
       <c r="H24">
-        <v>4.264882992219821</v>
+        <v>4.077738576733658</v>
       </c>
       <c r="I24">
-        <v>4.246204238719837</v>
+        <v>3.963204891687865</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.5881496338707</v>
+        <v>21.48649461247519</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.25409284280109</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.21047102960273</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.80292728761032</v>
+        <v>26.74812777795866</v>
       </c>
       <c r="C25">
-        <v>25.84255590322766</v>
+        <v>27.21886677083421</v>
       </c>
       <c r="D25">
-        <v>5.241376337953261</v>
+        <v>4.193467024236312</v>
       </c>
       <c r="E25">
-        <v>31.95080602589174</v>
+        <v>31.8348157398973</v>
       </c>
       <c r="F25">
-        <v>43.62405359131713</v>
+        <v>36.35146144852772</v>
       </c>
       <c r="G25">
-        <v>2.060992620809788</v>
+        <v>3.217031930385459</v>
       </c>
       <c r="H25">
-        <v>3.611987162231323</v>
+        <v>3.539004553911584</v>
       </c>
       <c r="I25">
-        <v>3.648068732136606</v>
+        <v>3.546403478597918</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.6185210912737</v>
+        <v>20.67604176546855</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.07091915104718</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.03974546120178</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
